--- a/小爪功能清单.xlsx
+++ b/小爪功能清单.xlsx
@@ -807,7 +807,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
